--- a/wwwroot/ExportMarkers.xlsx
+++ b/wwwroot/ExportMarkers.xlsx
@@ -14,13 +14,14 @@
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
     <sheet name="Customer" sheetId="3" r:id="rId4"/>
+    <sheet name="Markers" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Customer ID</t>
   </si>
@@ -59,6 +60,324 @@
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>32.2809 KM</t>
+  </si>
+  <si>
+    <t>8.21015 KM</t>
+  </si>
+  <si>
+    <t>3.13364 KM</t>
+  </si>
+  <si>
+    <t>33.4054 KM</t>
+  </si>
+  <si>
+    <t>36.7021 KM</t>
+  </si>
+  <si>
+    <t>44.2198 KM</t>
+  </si>
+  <si>
+    <t>27.0214 KM</t>
+  </si>
+  <si>
+    <t>15.0739 KM</t>
+  </si>
+  <si>
+    <t>49.5796 KM</t>
+  </si>
+  <si>
+    <t>47.7598 KM</t>
+  </si>
+  <si>
+    <t>15.7766 KM</t>
+  </si>
+  <si>
+    <t>77.3495 KM</t>
+  </si>
+  <si>
+    <t>46.4774 KM</t>
+  </si>
+  <si>
+    <t>47.9392 KM</t>
+  </si>
+  <si>
+    <t>50.6186 KM</t>
+  </si>
+  <si>
+    <t>53.1195 KM</t>
+  </si>
+  <si>
+    <t>45.2961 KM</t>
+  </si>
+  <si>
+    <t>49.5248 KM</t>
+  </si>
+  <si>
+    <t>39.0079 KM</t>
+  </si>
+  <si>
+    <t>56.4201 KM</t>
+  </si>
+  <si>
+    <t>55.5399 KM</t>
+  </si>
+  <si>
+    <t>54.4373 KM</t>
+  </si>
+  <si>
+    <t>46.653 KM</t>
+  </si>
+  <si>
+    <t>67.0588 KM</t>
+  </si>
+  <si>
+    <t>48.8189 KM</t>
+  </si>
+  <si>
+    <t>54.7956 KM</t>
+  </si>
+  <si>
+    <t>44.8457 KM</t>
+  </si>
+  <si>
+    <t>49.3824 KM</t>
+  </si>
+  <si>
+    <t>58.9216 KM</t>
+  </si>
+  <si>
+    <t>66.708 KM</t>
+  </si>
+  <si>
+    <t>34.9842 KM</t>
+  </si>
+  <si>
+    <t>71.2865 KM</t>
+  </si>
+  <si>
+    <t>15.7349 KM</t>
+  </si>
+  <si>
+    <t>6.63287 KM</t>
+  </si>
+  <si>
+    <t>50.5623 KM</t>
+  </si>
+  <si>
+    <t>59.7253 KM</t>
+  </si>
+  <si>
+    <t>55.7059 KM</t>
+  </si>
+  <si>
+    <t>57.5274 KM</t>
+  </si>
+  <si>
+    <t>66.3414 KM</t>
+  </si>
+  <si>
+    <t>78.2473 KM</t>
+  </si>
+  <si>
+    <t>70.8489 KM</t>
+  </si>
+  <si>
+    <t>110.541 KM</t>
+  </si>
+  <si>
+    <t>43.6539 KM</t>
+  </si>
+  <si>
+    <t>30.4369 KM</t>
+  </si>
+  <si>
+    <t>38.6977 KM</t>
+  </si>
+  <si>
+    <t>59.8592 KM</t>
+  </si>
+  <si>
+    <t>55.2431 KM</t>
+  </si>
+  <si>
+    <t>60.1869 KM</t>
+  </si>
+  <si>
+    <t>68.2736 KM</t>
+  </si>
+  <si>
+    <t>86.2344 KM</t>
+  </si>
+  <si>
+    <t>14.2686 KM</t>
+  </si>
+  <si>
+    <t>38.2808 KM</t>
+  </si>
+  <si>
+    <t>90.2733 KM</t>
+  </si>
+  <si>
+    <t>42.2781 KM</t>
+  </si>
+  <si>
+    <t>31.8995 KM</t>
+  </si>
+  <si>
+    <t>55.8359 KM</t>
+  </si>
+  <si>
+    <t>44.0942 KM</t>
+  </si>
+  <si>
+    <t>43.3107 KM</t>
+  </si>
+  <si>
+    <t>16.8863 KM</t>
+  </si>
+  <si>
+    <t>20.741 KM</t>
+  </si>
+  <si>
+    <t>35.9164 KM</t>
+  </si>
+  <si>
+    <t>34.1798 KM</t>
+  </si>
+  <si>
+    <t>19.551 KM</t>
+  </si>
+  <si>
+    <t>17.8386 KM</t>
+  </si>
+  <si>
+    <t>11.5135 KM</t>
+  </si>
+  <si>
+    <t>36.3381 KM</t>
+  </si>
+  <si>
+    <t>19.3052 KM</t>
+  </si>
+  <si>
+    <t>35.1128 KM</t>
+  </si>
+  <si>
+    <t>15.6096 KM</t>
+  </si>
+  <si>
+    <t>30.6678 KM</t>
+  </si>
+  <si>
+    <t>14.6009 KM</t>
+  </si>
+  <si>
+    <t>7.83238 KM</t>
+  </si>
+  <si>
+    <t>2.07736 KM</t>
+  </si>
+  <si>
+    <t>6.26487 KM</t>
+  </si>
+  <si>
+    <t>10.7167 KM</t>
+  </si>
+  <si>
+    <t>8.58506 KM</t>
+  </si>
+  <si>
+    <t>101.57 KM</t>
+  </si>
+  <si>
+    <t>47.0315 KM</t>
+  </si>
+  <si>
+    <t>70.6647 KM</t>
+  </si>
+  <si>
+    <t>66.1256 KM</t>
+  </si>
+  <si>
+    <t>46.8031 KM</t>
+  </si>
+  <si>
+    <t>35.996 KM</t>
+  </si>
+  <si>
+    <t>10.3471 KM</t>
+  </si>
+  <si>
+    <t>3.92146 KM</t>
+  </si>
+  <si>
+    <t>3.40513 KM</t>
+  </si>
+  <si>
+    <t>14.7893 KM</t>
+  </si>
+  <si>
+    <t>16.7238 KM</t>
+  </si>
+  <si>
+    <t>18.8466 KM</t>
+  </si>
+  <si>
+    <t>16.9565 KM</t>
+  </si>
+  <si>
+    <t>39.654 KM</t>
+  </si>
+  <si>
+    <t>18.337 KM</t>
+  </si>
+  <si>
+    <t>25.6941 KM</t>
+  </si>
+  <si>
+    <t>33.8405 KM</t>
+  </si>
+  <si>
+    <t>72.3063 KM</t>
+  </si>
+  <si>
+    <t>57.7437 KM</t>
+  </si>
+  <si>
+    <t>69.0872 KM</t>
+  </si>
+  <si>
+    <t>73.489 KM</t>
+  </si>
+  <si>
+    <t>74.8014 KM</t>
+  </si>
+  <si>
+    <t>69.3289 KM</t>
+  </si>
+  <si>
+    <t>67.5851 KM</t>
+  </si>
+  <si>
+    <t>80.8606 KM</t>
+  </si>
+  <si>
+    <t>83.927 KM</t>
+  </si>
+  <si>
+    <t>80.974 KM</t>
+  </si>
+  <si>
+    <t>72.5275 KM</t>
+  </si>
+  <si>
+    <t>73.4901 KM</t>
   </si>
 </sst>
 </file>
@@ -93,7 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,4 +772,607 @@
   </sheetData>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A118"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
 </file>